--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/16_Bilecik_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/16_Bilecik_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF22F358-2798-4416-9CFE-CA4D3F9DEE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13E51ED3-0317-4673-9DAA-743E2F66185A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{2EEE7080-BF81-4F1B-B92F-0011D5378AE9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{D2224936-E322-4156-B2B9-55D1A77CC2AF}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -801,15 +801,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{E806E895-25E2-4A25-B45A-C135432E298C}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{64871468-75E3-442F-9E6D-FDA88F885A55}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{80B27B5B-7234-4A4E-B316-8D22E255E3F8}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{36C57117-6A7A-4316-B96B-DA35032F5981}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{CED23399-5669-4F44-ABB2-E6191DF190C1}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{B7B174D7-AFB7-4E1F-83C2-BCBAC09BF5C4}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{7B125C54-7E90-4179-9D7E-0E4C68811400}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{04F68075-8EF6-4BE1-BD08-A7213E3365F7}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{C2B05BA2-5166-468E-BC7B-D3D6C13B6723}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{25FC8351-E418-40C2-AC25-A61A86AD430A}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{99AECADD-E204-4CD1-8237-9490EBC2E04A}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{821A2A36-C97F-46BF-86DE-9901358C9DF1}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{D41FC462-C594-4259-92CE-1A531E26A876}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{6BC0288F-BA57-4923-8BBD-F4695D12F084}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{A27264AF-800B-4017-8F79-50DE0EEE94FA}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{6E52A886-1A12-4E43-8F4F-C9AE28F2AB20}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{F3CEB86E-AC74-47F5-8968-E54341D2F6A6}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{ABF3EC9D-C1DD-43F1-BF96-EE144AAE115E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1179,7 +1179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577F8A79-6718-41C6-9C28-32050426315F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A808CC-78BD-4C95-B34D-650B2523315C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2420,7 +2420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F988FE3B-FE05-42A6-8259-429A4FE7B8C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66DBD4F-8E37-4AEE-ADA5-08574A4929B8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3659,7 +3659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D19D69-167C-462B-8A54-063907ADD33E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367FB26B-4F30-400F-9C3F-C3128F2057D5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4904,7 +4904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2928420D-3023-474C-B183-FB4B7ED41645}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A605ECC-FE5F-419A-B725-A3CBF5F126CB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6141,7 +6141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C20ED95-A45F-44EF-9C4D-C4D335DA5DEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0115F7DA-32E6-413D-B72C-73503A5DB88F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7368,7 +7368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127AF870-5431-468B-A1F9-CC87A574AC4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D624134-7ABF-4A2A-A350-888EC47FFA44}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
